--- a/テスト仕様書/商品表示・検索機能テスト仕様書.xlsx
+++ b/テスト仕様書/商品表示・検索機能テスト仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14300" windowHeight="3960"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8510" windowHeight="5960"/>
   </bookViews>
   <sheets>
     <sheet name="商品表示テスト仕様書" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="sql2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A7:C22"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="128">
   <si>
     <t>商品表示機能　ブラックボックステスト仕様書</t>
     <rPh sb="0" eb="2">
@@ -448,13 +448,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>・すべてのトッピング（8つ）にチェックを入れる</t>
-    <rPh sb="20" eb="21">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>・Mサイズ、トッピング2つで数量を変更した際、正常に金額がリアルタイムで更新されるか</t>
     <rPh sb="14" eb="16">
       <t>スウリョウ</t>
@@ -622,37 +615,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>・並び替えを「安い順」から「高い順」に変更し、決定ボタンを押す。</t>
-    <rPh sb="1" eb="2">
-      <t>ナラ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヤス</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ケッテイ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>「カツカレー」と入力した際、商品一覧画面から正常に商品が検索されるか</t>
     <rPh sb="8" eb="10">
       <t>ニュウリョク</t>
@@ -690,25 +652,6 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・「カツカレー」「味噌カツカレー」「とんかつカレーラーメン」「ヒレカツカレー」が価格の安い順に表示されること</t>
-    <rPh sb="9" eb="11">
-      <t>ミソ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>カカク</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ヤス</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1010,26 +953,6 @@
   </si>
   <si>
     <t>・合計金額が「3,170円」になっていること</t>
-    <rPh sb="1" eb="5">
-      <t>ゴウケイキンガク</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>エン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・合計金額が「3,090円」になっていること</t>
-    <rPh sb="1" eb="5">
-      <t>ゴウケイキンガク</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>エン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・合計金額が「4,970円」になっていること</t>
     <rPh sb="1" eb="5">
       <t>ゴウケイキンガク</t>
     </rPh>
@@ -1275,6 +1198,132 @@
   </si>
   <si>
     <t>〇</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・並び替えを「安い順」から「高い順」に変更し、並び替えボタンを押す。</t>
+    <rPh sb="1" eb="2">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>東</t>
+    <rPh sb="0" eb="1">
+      <t>アズマ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・「カツカレー」「味噌カツカレー」「ヒレカツカレー」が価格の安い順に表示されること</t>
+    <rPh sb="9" eb="11">
+      <t>ミソ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・商品情報が存在すること
+・「カツカレー」の商品詳細画面が表示されていること
+・サイズがMで、数量が1であること
+・sql2が実行されていること。</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・すべてのトッピング（28つ）にチェックを入れる</t>
+    <rPh sb="21" eb="22">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・合計金額が「7,090円」になっていること</t>
+    <rPh sb="1" eb="5">
+      <t>ゴウケイキンガク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・合計金額が「10,970円」になっていること</t>
+    <rPh sb="1" eb="5">
+      <t>ゴウケイキンガク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>エン</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1529,7 +1578,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1559,6 +1608,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1596,12 +1648,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1635,6 +1681,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1661,9 +1710,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1948,8 +1994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D8"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64:I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -1977,7 +2023,7 @@
         <v>1</v>
       </c>
       <c r="H1" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I1" s="41"/>
       <c r="K1" s="2"/>
@@ -2083,32 +2129,32 @@
       <c r="AC3" s="2"/>
     </row>
     <row r="4" spans="1:29" ht="13" customHeight="1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="E4" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="H4" s="44">
+        <v>117</v>
+      </c>
+      <c r="H4" s="10">
         <v>44025</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -2131,12 +2177,12 @@
       <c r="AC4" s="2"/>
     </row>
     <row r="5" spans="1:29" ht="13" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="14"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="14"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -2161,12 +2207,12 @@
       <c r="AC5" s="2"/>
     </row>
     <row r="6" spans="1:29" ht="13" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="14"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="14"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="15"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -2191,12 +2237,12 @@
       <c r="AC6" s="2"/>
     </row>
     <row r="7" spans="1:29" ht="13" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="14"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="14"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -2221,12 +2267,12 @@
       <c r="AC7" s="2"/>
     </row>
     <row r="8" spans="1:29" ht="13" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="14"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -2251,27 +2297,33 @@
       <c r="AC8" s="2"/>
     </row>
     <row r="9" spans="1:29" ht="13" customHeight="1">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+        <v>111</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" s="10">
+        <v>44026</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -2293,12 +2345,12 @@
       <c r="AC9" s="2"/>
     </row>
     <row r="10" spans="1:29" ht="13" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="14"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="14"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -2323,12 +2375,12 @@
       <c r="AC10" s="2"/>
     </row>
     <row r="11" spans="1:29" ht="13" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="14"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="14"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -2353,12 +2405,12 @@
       <c r="AC11" s="2"/>
     </row>
     <row r="12" spans="1:29" ht="13" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="14"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="14"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="15"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -2383,12 +2435,12 @@
       <c r="AC12" s="2"/>
     </row>
     <row r="13" spans="1:29" ht="13" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="14"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -2413,27 +2465,33 @@
       <c r="AC13" s="2"/>
     </row>
     <row r="14" spans="1:29" ht="13" customHeight="1">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>65</v>
+      <c r="C14" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+        <v>111</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" s="10">
+        <v>44026</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -2455,12 +2513,12 @@
       <c r="AC14" s="2"/>
     </row>
     <row r="15" spans="1:29" ht="13" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="14"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="14"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -2485,12 +2543,12 @@
       <c r="AC15" s="2"/>
     </row>
     <row r="16" spans="1:29" ht="13" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="14"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="14"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -2515,12 +2573,12 @@
       <c r="AC16" s="2"/>
     </row>
     <row r="17" spans="1:29" ht="13" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="14"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="14"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -2545,12 +2603,12 @@
       <c r="AC17" s="2"/>
     </row>
     <row r="18" spans="1:29" ht="13" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="14"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -2575,27 +2633,33 @@
       <c r="AC18" s="2"/>
     </row>
     <row r="19" spans="1:29" ht="13" customHeight="1">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>68</v>
+      <c r="C19" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+        <v>111</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19" s="10">
+        <v>44026</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -2617,12 +2681,12 @@
       <c r="AC19" s="2"/>
     </row>
     <row r="20" spans="1:29" ht="13" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="14"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="14"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -2647,12 +2711,12 @@
       <c r="AC20" s="2"/>
     </row>
     <row r="21" spans="1:29" ht="13" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="14"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="14"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -2677,12 +2741,12 @@
       <c r="AC21" s="2"/>
     </row>
     <row r="22" spans="1:29" ht="13" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="14"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="14"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="15"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -2707,12 +2771,12 @@
       <c r="AC22" s="2"/>
     </row>
     <row r="23" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="14"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -2737,27 +2801,33 @@
       <c r="AC23" s="2"/>
     </row>
     <row r="24" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>71</v>
+      <c r="C24" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+        <v>111</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H24" s="34">
+        <v>44026</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -2779,12 +2849,12 @@
       <c r="AC24" s="2"/>
     </row>
     <row r="25" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A25" s="10"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="14"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="14"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="15"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -2809,12 +2879,12 @@
       <c r="AC25" s="2"/>
     </row>
     <row r="26" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A26" s="10"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="14"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="14"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="15"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -2839,12 +2909,12 @@
       <c r="AC26" s="2"/>
     </row>
     <row r="27" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A27" s="10"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="14"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="14"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="15"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
@@ -2869,12 +2939,12 @@
       <c r="AC27" s="2"/>
     </row>
     <row r="28" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A28" s="10"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="14"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="15"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -2899,27 +2969,33 @@
       <c r="AC28" s="2"/>
     </row>
     <row r="29" spans="1:29" ht="13" customHeight="1">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="15" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E29" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="G29" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H29" s="34">
+        <v>44026</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -2941,12 +3017,12 @@
       <c r="AC29" s="2"/>
     </row>
     <row r="30" spans="1:29" ht="13" customHeight="1">
-      <c r="A30" s="10"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="14"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="14"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="15"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -2971,12 +3047,12 @@
       <c r="AC30" s="2"/>
     </row>
     <row r="31" spans="1:29" ht="13" customHeight="1">
-      <c r="A31" s="10"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="14"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="14"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="15"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -3001,12 +3077,12 @@
       <c r="AC31" s="2"/>
     </row>
     <row r="32" spans="1:29" ht="13" customHeight="1">
-      <c r="A32" s="10"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="14"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="15"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="14"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="15"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
@@ -3031,12 +3107,12 @@
       <c r="AC32" s="2"/>
     </row>
     <row r="33" spans="1:29" ht="13" customHeight="1">
-      <c r="A33" s="10"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="14"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="15"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
@@ -3061,27 +3137,33 @@
       <c r="AC33" s="2"/>
     </row>
     <row r="34" spans="1:29" ht="13" customHeight="1">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E34" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
+      <c r="H34" s="34">
+        <v>44026</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -3103,12 +3185,12 @@
       <c r="AC34" s="2"/>
     </row>
     <row r="35" spans="1:29" ht="13" customHeight="1">
-      <c r="A35" s="10"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -3133,12 +3215,12 @@
       <c r="AC35" s="2"/>
     </row>
     <row r="36" spans="1:29" ht="13" customHeight="1">
-      <c r="A36" s="10"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -3163,12 +3245,12 @@
       <c r="AC36" s="2"/>
     </row>
     <row r="37" spans="1:29" ht="13" customHeight="1">
-      <c r="A37" s="10"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
@@ -3193,12 +3275,12 @@
       <c r="AC37" s="2"/>
     </row>
     <row r="38" spans="1:29" ht="13" customHeight="1">
-      <c r="A38" s="10"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -3223,27 +3305,33 @@
       <c r="AC38" s="2"/>
     </row>
     <row r="39" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="E39" s="14" t="s">
+      <c r="D39" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F39" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
+      <c r="F39" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H39" s="34">
+        <v>44026</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="K39" s="4"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -3265,12 +3353,12 @@
       <c r="AC39" s="2"/>
     </row>
     <row r="40" spans="1:29" ht="13" customHeight="1">
-      <c r="A40" s="10"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -3295,12 +3383,12 @@
       <c r="AC40" s="2"/>
     </row>
     <row r="41" spans="1:29" ht="13" customHeight="1">
-      <c r="A41" s="10"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -3325,12 +3413,12 @@
       <c r="AC41" s="2"/>
     </row>
     <row r="42" spans="1:29" ht="13" customHeight="1">
-      <c r="A42" s="10"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
@@ -3355,12 +3443,12 @@
       <c r="AC42" s="2"/>
     </row>
     <row r="43" spans="1:29" ht="13" customHeight="1">
-      <c r="A43" s="10"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
@@ -3385,27 +3473,33 @@
       <c r="AC43" s="2"/>
     </row>
     <row r="44" spans="1:29" ht="13" customHeight="1">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="30" t="s">
+      <c r="D44" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H44" s="34">
+        <v>44026</v>
+      </c>
+      <c r="I44" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E44" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
@@ -3427,12 +3521,12 @@
       <c r="AC44" s="2"/>
     </row>
     <row r="45" spans="1:29" ht="13" customHeight="1">
-      <c r="A45" s="10"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
@@ -3457,12 +3551,12 @@
       <c r="AC45" s="2"/>
     </row>
     <row r="46" spans="1:29" ht="13" customHeight="1">
-      <c r="A46" s="10"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
@@ -3487,12 +3581,12 @@
       <c r="AC46" s="2"/>
     </row>
     <row r="47" spans="1:29" ht="13" customHeight="1">
-      <c r="A47" s="10"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
@@ -3517,27 +3611,27 @@
       <c r="AC47" s="2"/>
     </row>
     <row r="48" spans="1:29" ht="33.5" customHeight="1">
-      <c r="A48" s="10"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="K48" s="2"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="33"/>
-      <c r="N48" s="33"/>
-      <c r="O48" s="33"/>
-      <c r="P48" s="33"/>
-      <c r="Q48" s="33"/>
-      <c r="R48" s="33"/>
-      <c r="S48" s="33"/>
-      <c r="T48" s="33"/>
-      <c r="U48" s="33"/>
-      <c r="V48" s="33"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="32"/>
+      <c r="P48" s="32"/>
+      <c r="Q48" s="32"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="32"/>
+      <c r="T48" s="32"/>
+      <c r="U48" s="32"/>
+      <c r="V48" s="32"/>
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
@@ -3547,39 +3641,45 @@
       <c r="AC48" s="2"/>
     </row>
     <row r="49" spans="1:29" ht="13" customHeight="1">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="E49" s="14" t="s">
+      <c r="D49" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="F49" s="14" t="s">
+      <c r="E49" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
+      <c r="F49" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H49" s="34">
+        <v>44026</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="K49" s="2"/>
-      <c r="L49" s="33"/>
-      <c r="M49" s="33"/>
-      <c r="N49" s="33"/>
-      <c r="O49" s="33"/>
-      <c r="P49" s="33"/>
-      <c r="Q49" s="33"/>
-      <c r="R49" s="33"/>
-      <c r="S49" s="33"/>
-      <c r="T49" s="33"/>
-      <c r="U49" s="33"/>
-      <c r="V49" s="33"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="32"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="32"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="32"/>
+      <c r="T49" s="32"/>
+      <c r="U49" s="32"/>
+      <c r="V49" s="32"/>
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
@@ -3589,27 +3689,27 @@
       <c r="AC49" s="2"/>
     </row>
     <row r="50" spans="1:29" ht="13" customHeight="1">
-      <c r="A50" s="10"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="K50" s="2"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="33"/>
-      <c r="N50" s="33"/>
-      <c r="O50" s="33"/>
-      <c r="P50" s="33"/>
-      <c r="Q50" s="33"/>
-      <c r="R50" s="33"/>
-      <c r="S50" s="33"/>
-      <c r="T50" s="33"/>
-      <c r="U50" s="33"/>
-      <c r="V50" s="33"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="32"/>
+      <c r="R50" s="32"/>
+      <c r="S50" s="32"/>
+      <c r="T50" s="32"/>
+      <c r="U50" s="32"/>
+      <c r="V50" s="32"/>
       <c r="W50" s="2"/>
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
@@ -3619,27 +3719,27 @@
       <c r="AC50" s="2"/>
     </row>
     <row r="51" spans="1:29" ht="13" customHeight="1">
-      <c r="A51" s="10"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="K51" s="2"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="33"/>
-      <c r="N51" s="33"/>
-      <c r="O51" s="33"/>
-      <c r="P51" s="33"/>
-      <c r="Q51" s="33"/>
-      <c r="R51" s="33"/>
-      <c r="S51" s="33"/>
-      <c r="T51" s="33"/>
-      <c r="U51" s="33"/>
-      <c r="V51" s="33"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="32"/>
+      <c r="P51" s="32"/>
+      <c r="Q51" s="32"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="32"/>
+      <c r="T51" s="32"/>
+      <c r="U51" s="32"/>
+      <c r="V51" s="32"/>
       <c r="W51" s="2"/>
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
@@ -3649,27 +3749,27 @@
       <c r="AC51" s="2"/>
     </row>
     <row r="52" spans="1:29" ht="13" customHeight="1">
-      <c r="A52" s="10"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
+      <c r="A52" s="11"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="K52" s="2"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="34"/>
-      <c r="N52" s="34"/>
-      <c r="O52" s="34"/>
-      <c r="P52" s="34"/>
-      <c r="Q52" s="34"/>
-      <c r="R52" s="34"/>
-      <c r="S52" s="34"/>
-      <c r="T52" s="34"/>
-      <c r="U52" s="34"/>
-      <c r="V52" s="34"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="33"/>
+      <c r="U52" s="33"/>
+      <c r="V52" s="33"/>
       <c r="W52" s="2"/>
       <c r="X52" s="2"/>
       <c r="Y52" s="2"/>
@@ -3679,27 +3779,27 @@
       <c r="AC52" s="2"/>
     </row>
     <row r="53" spans="1:29" ht="37" customHeight="1">
-      <c r="A53" s="10"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="K53" s="2"/>
-      <c r="L53" s="33"/>
-      <c r="M53" s="33"/>
-      <c r="N53" s="33"/>
-      <c r="O53" s="33"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="33"/>
-      <c r="S53" s="33"/>
-      <c r="T53" s="33"/>
-      <c r="U53" s="33"/>
-      <c r="V53" s="33"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="32"/>
+      <c r="O53" s="32"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="32"/>
+      <c r="U53" s="32"/>
+      <c r="V53" s="32"/>
       <c r="W53" s="2"/>
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
@@ -3709,39 +3809,45 @@
       <c r="AC53" s="2"/>
     </row>
     <row r="54" spans="1:29" ht="13" customHeight="1">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D54" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
+      <c r="D54" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H54" s="34">
+        <v>44026</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="K54" s="2"/>
-      <c r="L54" s="33"/>
-      <c r="M54" s="33"/>
-      <c r="N54" s="33"/>
-      <c r="O54" s="33"/>
-      <c r="P54" s="33"/>
-      <c r="Q54" s="33"/>
-      <c r="R54" s="33"/>
-      <c r="S54" s="33"/>
-      <c r="T54" s="33"/>
-      <c r="U54" s="33"/>
-      <c r="V54" s="33"/>
+      <c r="L54" s="32"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="32"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="32"/>
+      <c r="U54" s="32"/>
+      <c r="V54" s="32"/>
       <c r="W54" s="2"/>
       <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
@@ -3751,27 +3857,27 @@
       <c r="AC54" s="2"/>
     </row>
     <row r="55" spans="1:29" ht="13" customHeight="1">
-      <c r="A55" s="10"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="K55" s="2"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="33"/>
-      <c r="N55" s="33"/>
-      <c r="O55" s="33"/>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="33"/>
-      <c r="S55" s="33"/>
-      <c r="T55" s="33"/>
-      <c r="U55" s="33"/>
-      <c r="V55" s="33"/>
+      <c r="L55" s="32"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="32"/>
+      <c r="O55" s="32"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="32"/>
+      <c r="U55" s="32"/>
+      <c r="V55" s="32"/>
       <c r="W55" s="2"/>
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
@@ -3781,27 +3887,27 @@
       <c r="AC55" s="2"/>
     </row>
     <row r="56" spans="1:29" ht="13" customHeight="1">
-      <c r="A56" s="10"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
       <c r="K56" s="2"/>
-      <c r="L56" s="34"/>
-      <c r="M56" s="34"/>
-      <c r="N56" s="34"/>
-      <c r="O56" s="34"/>
-      <c r="P56" s="34"/>
-      <c r="Q56" s="34"/>
-      <c r="R56" s="34"/>
-      <c r="S56" s="34"/>
-      <c r="T56" s="34"/>
-      <c r="U56" s="34"/>
-      <c r="V56" s="34"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="33"/>
+      <c r="N56" s="33"/>
+      <c r="O56" s="33"/>
+      <c r="P56" s="33"/>
+      <c r="Q56" s="33"/>
+      <c r="R56" s="33"/>
+      <c r="S56" s="33"/>
+      <c r="T56" s="33"/>
+      <c r="U56" s="33"/>
+      <c r="V56" s="33"/>
       <c r="W56" s="2"/>
       <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
@@ -3811,12 +3917,12 @@
       <c r="AC56" s="2"/>
     </row>
     <row r="57" spans="1:29" ht="13" customHeight="1">
-      <c r="A57" s="10"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
+      <c r="A57" s="11"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
@@ -3841,12 +3947,12 @@
       <c r="AC57" s="2"/>
     </row>
     <row r="58" spans="1:29" ht="36" customHeight="1">
-      <c r="A58" s="10"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
+      <c r="A58" s="11"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
@@ -3871,27 +3977,33 @@
       <c r="AC58" s="2"/>
     </row>
     <row r="59" spans="1:29" ht="13" customHeight="1">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D59" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F59" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
+      <c r="D59" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H59" s="34">
+        <v>44026</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="K59" s="2"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
@@ -3913,12 +4025,12 @@
       <c r="AC59" s="2"/>
     </row>
     <row r="60" spans="1:29" ht="13" customHeight="1">
-      <c r="A60" s="10"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
@@ -3943,12 +4055,12 @@
       <c r="AC60" s="2"/>
     </row>
     <row r="61" spans="1:29" ht="13" customHeight="1">
-      <c r="A61" s="10"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
+      <c r="A61" s="11"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
@@ -3973,12 +4085,12 @@
       <c r="AC61" s="2"/>
     </row>
     <row r="62" spans="1:29" ht="13" customHeight="1">
-      <c r="A62" s="10"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
+      <c r="A62" s="11"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
@@ -4003,12 +4115,12 @@
       <c r="AC62" s="2"/>
     </row>
     <row r="63" spans="1:29" ht="41" customHeight="1">
-      <c r="A63" s="10"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
+      <c r="A63" s="11"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
@@ -4033,27 +4145,33 @@
       <c r="AC63" s="2"/>
     </row>
     <row r="64" spans="1:29" ht="13" customHeight="1">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C64" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E64" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D64" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="E64" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F64" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
+      <c r="F64" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H64" s="34">
+        <v>44026</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -4075,12 +4193,12 @@
       <c r="AC64" s="2"/>
     </row>
     <row r="65" spans="1:29" ht="13" customHeight="1">
-      <c r="A65" s="10"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
+      <c r="A65" s="11"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
@@ -4105,12 +4223,12 @@
       <c r="AC65" s="2"/>
     </row>
     <row r="66" spans="1:29" ht="13" customHeight="1">
-      <c r="A66" s="10"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
+      <c r="A66" s="11"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
@@ -4135,12 +4253,12 @@
       <c r="AC66" s="2"/>
     </row>
     <row r="67" spans="1:29" ht="13" customHeight="1">
-      <c r="A67" s="10"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
+      <c r="A67" s="11"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
@@ -4165,12 +4283,12 @@
       <c r="AC67" s="2"/>
     </row>
     <row r="68" spans="1:29" ht="41" customHeight="1">
-      <c r="A68" s="10"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
+      <c r="A68" s="11"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
@@ -4195,27 +4313,33 @@
       <c r="AC68" s="2"/>
     </row>
     <row r="69" spans="1:29" ht="13" customHeight="1">
-      <c r="A69" s="28" t="s">
+      <c r="A69" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C69" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D69" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="E69" s="11" t="s">
+      <c r="C69" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F69" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
+      <c r="D69" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H69" s="34">
+        <v>44026</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
@@ -4237,15 +4361,15 @@
       <c r="AC69" s="2"/>
     </row>
     <row r="70" spans="1:29" ht="13" customHeight="1">
-      <c r="A70" s="29"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="23"/>
-      <c r="I70" s="23"/>
+      <c r="A70" s="28"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
@@ -4267,15 +4391,15 @@
       <c r="AC70" s="2"/>
     </row>
     <row r="71" spans="1:29" ht="13" customHeight="1">
-      <c r="A71" s="29"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
-      <c r="I71" s="23"/>
+      <c r="A71" s="28"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
@@ -4297,15 +4421,15 @@
       <c r="AC71" s="2"/>
     </row>
     <row r="72" spans="1:29" ht="13" customHeight="1">
-      <c r="A72" s="29"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="23"/>
-      <c r="I72" s="23"/>
+      <c r="A72" s="28"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
@@ -4327,15 +4451,15 @@
       <c r="AC72" s="2"/>
     </row>
     <row r="73" spans="1:29" ht="29.5" customHeight="1">
-      <c r="A73" s="29"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="23"/>
-      <c r="I73" s="23"/>
+      <c r="A73" s="28"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
@@ -4357,117 +4481,124 @@
       <c r="AC73" s="2"/>
     </row>
     <row r="74" spans="1:29" ht="13" customHeight="1">
-      <c r="A74" s="24"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="27"/>
-      <c r="I74" s="27"/>
+      <c r="A74" s="23"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="26"/>
     </row>
     <row r="75" spans="1:29" ht="13" customHeight="1">
-      <c r="A75" s="19"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
+      <c r="A75" s="20"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
     </row>
     <row r="76" spans="1:29" ht="13" customHeight="1">
-      <c r="A76" s="19"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
+      <c r="A76" s="20"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
     </row>
     <row r="77" spans="1:29" ht="13" customHeight="1">
-      <c r="A77" s="19"/>
-      <c r="B77" s="20"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="18"/>
-      <c r="I77" s="18"/>
+      <c r="A77" s="20"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
     </row>
     <row r="78" spans="1:29" ht="13" customHeight="1">
-      <c r="A78" s="19"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
-      <c r="I78" s="18"/>
+      <c r="A78" s="20"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
     </row>
     <row r="79" spans="1:29" ht="13" customHeight="1">
-      <c r="A79" s="19"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
+      <c r="A79" s="20"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
     </row>
     <row r="80" spans="1:29" ht="13" customHeight="1">
-      <c r="A80" s="19"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="20"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
+      <c r="A80" s="20"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
     </row>
     <row r="81" spans="1:9" ht="13" customHeight="1">
-      <c r="A81" s="19"/>
-      <c r="B81" s="20"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
+      <c r="A81" s="20"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
     </row>
     <row r="82" spans="1:9" ht="13" customHeight="1">
-      <c r="A82" s="19"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
+      <c r="A82" s="20"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
     </row>
     <row r="83" spans="1:9" ht="13" customHeight="1">
-      <c r="A83" s="19"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="20"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="18"/>
+      <c r="A83" s="20"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="156">
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="H24:H28"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="H2:I2"/>
@@ -4480,15 +4611,6 @@
     <mergeCell ref="G4:G8"/>
     <mergeCell ref="H4:H8"/>
     <mergeCell ref="I4:I8"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="H34:H38"/>
     <mergeCell ref="I34:I38"/>
     <mergeCell ref="G29:G33"/>
     <mergeCell ref="H29:H33"/>
@@ -4602,7 +4724,6 @@
     <mergeCell ref="E74:E78"/>
     <mergeCell ref="F74:F78"/>
     <mergeCell ref="G74:G78"/>
-    <mergeCell ref="H24:H28"/>
     <mergeCell ref="I24:I28"/>
     <mergeCell ref="D29:D33"/>
     <mergeCell ref="H9:H13"/>
@@ -4624,6 +4745,9 @@
     <mergeCell ref="G19:G23"/>
     <mergeCell ref="H19:H23"/>
     <mergeCell ref="I19:I23"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4635,150 +4759,150 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4799,177 +4923,177 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/テスト仕様書/商品表示・検索機能テスト仕様書.xlsx
+++ b/テスト仕様書/商品表示・検索機能テスト仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8510" windowHeight="5960"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6840" windowHeight="3520"/>
   </bookViews>
   <sheets>
     <sheet name="商品表示テスト仕様書" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="129">
   <si>
     <t>商品表示機能　ブラックボックステスト仕様書</t>
     <rPh sb="0" eb="2">
@@ -1265,10 +1265,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>×</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>・商品情報が存在すること
 ・「カツカレー」の商品詳細画面が表示されていること
 ・サイズがMで、数量が1であること
@@ -1323,6 +1319,32 @@
     </rPh>
     <rPh sb="13" eb="14">
       <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>三井</t>
+    <rPh sb="0" eb="2">
+      <t>ミツイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・商品一覧情報が3列に表示されること</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1578,7 +1600,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1600,6 +1622,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1607,24 +1641,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1636,50 +1652,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1708,7 +1688,58 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1992,10 +2023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC83"/>
+  <dimension ref="A1:AC88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64:I73"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -2011,21 +2042,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="18" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="41"/>
+      <c r="I1" s="27"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -2047,19 +2078,19 @@
       <c r="AC1" s="2"/>
     </row>
     <row r="2" spans="1:29" ht="17.5" customHeight="1">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="42">
+      <c r="H2" s="28">
         <v>44022</v>
       </c>
-      <c r="I2" s="42"/>
+      <c r="I2" s="28"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -2129,31 +2160,31 @@
       <c r="AC3" s="2"/>
     </row>
     <row r="4" spans="1:29" ht="13" customHeight="1">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="19">
         <v>44025</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="18" t="s">
         <v>118</v>
       </c>
       <c r="K4" s="2"/>
@@ -2177,15 +2208,15 @@
       <c r="AC4" s="2"/>
     </row>
     <row r="5" spans="1:29" ht="13" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -2207,15 +2238,15 @@
       <c r="AC5" s="2"/>
     </row>
     <row r="6" spans="1:29" ht="13" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -2237,15 +2268,15 @@
       <c r="AC6" s="2"/>
     </row>
     <row r="7" spans="1:29" ht="13" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -2266,16 +2297,16 @@
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
     </row>
-    <row r="8" spans="1:29" ht="13" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+    <row r="8" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A8" s="29"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -2296,33 +2327,33 @@
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
     </row>
-    <row r="9" spans="1:29" ht="13" customHeight="1">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:29" customFormat="1" ht="5.5" customHeight="1">
+      <c r="A9" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="H9" s="10">
-        <v>44026</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>121</v>
+      <c r="D9" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="19">
+        <v>44027</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>118</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -2344,16 +2375,16 @@
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
     </row>
-    <row r="10" spans="1:29" ht="13" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+    <row r="10" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A10" s="29"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -2374,16 +2405,16 @@
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
     </row>
-    <row r="11" spans="1:29" ht="13" customHeight="1">
-      <c r="A11" s="11"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+    <row r="11" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A11" s="29"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -2404,16 +2435,16 @@
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
     </row>
-    <row r="12" spans="1:29" ht="13" customHeight="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+    <row r="12" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A12" s="29"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -2434,16 +2465,16 @@
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
     </row>
-    <row r="13" spans="1:29" ht="13" customHeight="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+    <row r="13" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A13" s="29"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -2464,32 +2495,32 @@
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
     </row>
-    <row r="14" spans="1:29" ht="13" customHeight="1">
-      <c r="A14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="7" t="s">
+    <row r="14" spans="1:29" customFormat="1" ht="5.5" customHeight="1">
+      <c r="A14" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="G14" s="6" t="s">
+      <c r="E14" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="19">
         <v>44026</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="18" t="s">
         <v>121</v>
       </c>
       <c r="K14" s="2"/>
@@ -2512,16 +2543,16 @@
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
     </row>
-    <row r="15" spans="1:29" ht="13" customHeight="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+    <row r="15" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A15" s="29"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -2542,16 +2573,16 @@
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
     </row>
-    <row r="16" spans="1:29" ht="13" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+    <row r="16" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A16" s="29"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -2572,16 +2603,16 @@
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
     </row>
-    <row r="17" spans="1:29" ht="13" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+    <row r="17" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A17" s="29"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -2602,16 +2633,16 @@
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
     </row>
-    <row r="18" spans="1:29" ht="13" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+    <row r="18" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A18" s="29"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -2632,32 +2663,32 @@
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
     </row>
-    <row r="19" spans="1:29" ht="13" customHeight="1">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A19" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="C19" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" s="6" t="s">
+      <c r="E19" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="19">
         <v>44026</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="18" t="s">
         <v>121</v>
       </c>
       <c r="K19" s="2"/>
@@ -2680,16 +2711,16 @@
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
     </row>
-    <row r="20" spans="1:29" ht="13" customHeight="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+    <row r="20" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A20" s="29"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -2710,16 +2741,16 @@
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
     </row>
-    <row r="21" spans="1:29" ht="13" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+    <row r="21" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A21" s="29"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -2740,16 +2771,16 @@
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
     </row>
-    <row r="22" spans="1:29" ht="13" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+    <row r="22" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A22" s="29"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -2770,16 +2801,16 @@
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
     </row>
-    <row r="23" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+    <row r="23" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A23" s="29"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -2800,32 +2831,32 @@
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
     </row>
-    <row r="24" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A24" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" s="6" t="s">
+      <c r="E24" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="H24" s="34">
+      <c r="H24" s="19">
         <v>44026</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="18" t="s">
         <v>121</v>
       </c>
       <c r="K24" s="2"/>
@@ -2848,16 +2879,16 @@
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
     </row>
-    <row r="25" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+    <row r="25" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A25" s="29"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -2878,16 +2909,16 @@
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
     </row>
-    <row r="26" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+    <row r="26" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A26" s="29"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -2908,16 +2939,16 @@
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
     </row>
-    <row r="27" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A27" s="11"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+    <row r="27" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A27" s="29"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -2938,16 +2969,16 @@
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
     </row>
-    <row r="28" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A28" s="11"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+    <row r="28" spans="1:29" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A28" s="29"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -2968,33 +2999,33 @@
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
     </row>
-    <row r="29" spans="1:29" ht="13" customHeight="1">
-      <c r="A29" s="11" t="s">
+    <row r="29" spans="1:29" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A29" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="7" t="s">
+      <c r="B29" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E29" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H29" s="34">
+      <c r="E29" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="H29" s="20">
         <v>44026</v>
       </c>
-      <c r="I29" s="6" t="s">
-        <v>123</v>
+      <c r="I29" s="18" t="s">
+        <v>121</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -3016,16 +3047,16 @@
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
     </row>
-    <row r="30" spans="1:29" ht="13" customHeight="1">
-      <c r="A30" s="11"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+    <row r="30" spans="1:29" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A30" s="29"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -3046,16 +3077,16 @@
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
     </row>
-    <row r="31" spans="1:29" ht="13" customHeight="1">
-      <c r="A31" s="11"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+    <row r="31" spans="1:29" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A31" s="29"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -3076,16 +3107,16 @@
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
     </row>
-    <row r="32" spans="1:29" ht="13" customHeight="1">
-      <c r="A32" s="11"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+    <row r="32" spans="1:29" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A32" s="29"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -3106,16 +3137,16 @@
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
     </row>
-    <row r="33" spans="1:29" ht="13" customHeight="1">
-      <c r="A33" s="11"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+    <row r="33" spans="1:29" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A33" s="29"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -3136,32 +3167,32 @@
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
     </row>
-    <row r="34" spans="1:29" ht="13" customHeight="1">
-      <c r="A34" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H34" s="34">
-        <v>44026</v>
-      </c>
-      <c r="I34" s="6" t="s">
+    <row r="34" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A34" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="H34" s="20">
+        <v>44027</v>
+      </c>
+      <c r="I34" s="18" t="s">
         <v>118</v>
       </c>
       <c r="K34" s="2"/>
@@ -3184,16 +3215,16 @@
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
     </row>
-    <row r="35" spans="1:29" ht="13" customHeight="1">
-      <c r="A35" s="11"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="30"/>
+    <row r="35" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A35" s="29"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="12"/>
       <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -3214,16 +3245,16 @@
       <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
     </row>
-    <row r="36" spans="1:29" ht="13" customHeight="1">
-      <c r="A36" s="11"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="30"/>
+    <row r="36" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A36" s="29"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="12"/>
       <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -3244,16 +3275,16 @@
       <c r="AB36" s="2"/>
       <c r="AC36" s="2"/>
     </row>
-    <row r="37" spans="1:29" ht="13" customHeight="1">
-      <c r="A37" s="11"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="30"/>
+    <row r="37" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A37" s="29"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="12"/>
       <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -3274,16 +3305,16 @@
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
     </row>
-    <row r="38" spans="1:29" ht="13" customHeight="1">
-      <c r="A38" s="11"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
+    <row r="38" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A38" s="29"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
@@ -3304,35 +3335,35 @@
       <c r="AB38" s="2"/>
       <c r="AC38" s="2"/>
     </row>
-    <row r="39" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A39" s="11" t="s">
+    <row r="39" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A39" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G39" s="6" t="s">
+      <c r="C39" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G39" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="H39" s="34">
+      <c r="H39" s="20">
         <v>44026</v>
       </c>
-      <c r="I39" s="6" t="s">
+      <c r="I39" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="K39" s="4"/>
+      <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -3352,16 +3383,16 @@
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
     </row>
-    <row r="40" spans="1:29" ht="13" customHeight="1">
-      <c r="A40" s="11"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
+    <row r="40" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A40" s="29"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -3382,16 +3413,16 @@
       <c r="AB40" s="2"/>
       <c r="AC40" s="2"/>
     </row>
-    <row r="41" spans="1:29" ht="13" customHeight="1">
-      <c r="A41" s="11"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
+    <row r="41" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A41" s="29"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
@@ -3412,16 +3443,16 @@
       <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
     </row>
-    <row r="42" spans="1:29" ht="13" customHeight="1">
-      <c r="A42" s="11"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
+    <row r="42" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A42" s="29"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
@@ -3442,16 +3473,16 @@
       <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
     </row>
-    <row r="43" spans="1:29" ht="13" customHeight="1">
-      <c r="A43" s="11"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
+    <row r="43" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A43" s="29"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -3472,35 +3503,35 @@
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
     </row>
-    <row r="44" spans="1:29" ht="13" customHeight="1">
-      <c r="A44" s="11" t="s">
+    <row r="44" spans="1:29" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A44" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="G44" s="6" t="s">
+      <c r="C44" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G44" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="H44" s="34">
+      <c r="H44" s="20">
         <v>44026</v>
       </c>
-      <c r="I44" s="6" t="s">
+      <c r="I44" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="K44" s="2"/>
+      <c r="K44" s="4"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -3520,16 +3551,16 @@
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
     </row>
-    <row r="45" spans="1:29" ht="13" customHeight="1">
-      <c r="A45" s="11"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
+    <row r="45" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A45" s="29"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -3550,16 +3581,16 @@
       <c r="AB45" s="2"/>
       <c r="AC45" s="2"/>
     </row>
-    <row r="46" spans="1:29" ht="13" customHeight="1">
-      <c r="A46" s="11"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
+    <row r="46" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A46" s="29"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -3580,16 +3611,16 @@
       <c r="AB46" s="2"/>
       <c r="AC46" s="2"/>
     </row>
-    <row r="47" spans="1:29" ht="13" customHeight="1">
-      <c r="A47" s="11"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
+    <row r="47" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A47" s="29"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -3610,28 +3641,28 @@
       <c r="AB47" s="2"/>
       <c r="AC47" s="2"/>
     </row>
-    <row r="48" spans="1:29" ht="33.5" customHeight="1">
-      <c r="A48" s="11"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
+    <row r="48" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A48" s="29"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
       <c r="K48" s="2"/>
-      <c r="L48" s="32"/>
-      <c r="M48" s="32"/>
-      <c r="N48" s="32"/>
-      <c r="O48" s="32"/>
-      <c r="P48" s="32"/>
-      <c r="Q48" s="32"/>
-      <c r="R48" s="32"/>
-      <c r="S48" s="32"/>
-      <c r="T48" s="32"/>
-      <c r="U48" s="32"/>
-      <c r="V48" s="32"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
@@ -3640,46 +3671,46 @@
       <c r="AB48" s="2"/>
       <c r="AC48" s="2"/>
     </row>
-    <row r="49" spans="1:29" ht="13" customHeight="1">
-      <c r="A49" s="11" t="s">
+    <row r="49" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A49" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D49" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="E49" s="15" t="s">
+      <c r="C49" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="E49" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="F49" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G49" s="6" t="s">
+      <c r="F49" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G49" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="H49" s="34">
+      <c r="H49" s="20">
         <v>44026</v>
       </c>
-      <c r="I49" s="6" t="s">
+      <c r="I49" s="18" t="s">
         <v>118</v>
       </c>
       <c r="K49" s="2"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="32"/>
-      <c r="O49" s="32"/>
-      <c r="P49" s="32"/>
-      <c r="Q49" s="32"/>
-      <c r="R49" s="32"/>
-      <c r="S49" s="32"/>
-      <c r="T49" s="32"/>
-      <c r="U49" s="32"/>
-      <c r="V49" s="32"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
@@ -3688,28 +3719,28 @@
       <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
     </row>
-    <row r="50" spans="1:29" ht="13" customHeight="1">
-      <c r="A50" s="11"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
+    <row r="50" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A50" s="29"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
       <c r="K50" s="2"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="32"/>
-      <c r="O50" s="32"/>
-      <c r="P50" s="32"/>
-      <c r="Q50" s="32"/>
-      <c r="R50" s="32"/>
-      <c r="S50" s="32"/>
-      <c r="T50" s="32"/>
-      <c r="U50" s="32"/>
-      <c r="V50" s="32"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
       <c r="W50" s="2"/>
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
@@ -3718,28 +3749,28 @@
       <c r="AB50" s="2"/>
       <c r="AC50" s="2"/>
     </row>
-    <row r="51" spans="1:29" ht="13" customHeight="1">
-      <c r="A51" s="11"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
+    <row r="51" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A51" s="29"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
       <c r="K51" s="2"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="32"/>
-      <c r="O51" s="32"/>
-      <c r="P51" s="32"/>
-      <c r="Q51" s="32"/>
-      <c r="R51" s="32"/>
-      <c r="S51" s="32"/>
-      <c r="T51" s="32"/>
-      <c r="U51" s="32"/>
-      <c r="V51" s="32"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
       <c r="W51" s="2"/>
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
@@ -3748,28 +3779,28 @@
       <c r="AB51" s="2"/>
       <c r="AC51" s="2"/>
     </row>
-    <row r="52" spans="1:29" ht="13" customHeight="1">
-      <c r="A52" s="11"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
+    <row r="52" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A52" s="29"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
       <c r="K52" s="2"/>
-      <c r="L52" s="33"/>
-      <c r="M52" s="33"/>
-      <c r="N52" s="33"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="33"/>
-      <c r="R52" s="33"/>
-      <c r="S52" s="33"/>
-      <c r="T52" s="33"/>
-      <c r="U52" s="33"/>
-      <c r="V52" s="33"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
       <c r="W52" s="2"/>
       <c r="X52" s="2"/>
       <c r="Y52" s="2"/>
@@ -3778,28 +3809,28 @@
       <c r="AB52" s="2"/>
       <c r="AC52" s="2"/>
     </row>
-    <row r="53" spans="1:29" ht="37" customHeight="1">
-      <c r="A53" s="11"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
+    <row r="53" spans="1:29" customFormat="1" ht="33.5" customHeight="1">
+      <c r="A53" s="29"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
       <c r="K53" s="2"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="32"/>
-      <c r="O53" s="32"/>
-      <c r="P53" s="32"/>
-      <c r="Q53" s="32"/>
-      <c r="R53" s="32"/>
-      <c r="S53" s="32"/>
-      <c r="T53" s="32"/>
-      <c r="U53" s="32"/>
-      <c r="V53" s="32"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="37"/>
+      <c r="P53" s="37"/>
+      <c r="Q53" s="37"/>
+      <c r="R53" s="37"/>
+      <c r="S53" s="37"/>
+      <c r="T53" s="37"/>
+      <c r="U53" s="37"/>
+      <c r="V53" s="37"/>
       <c r="W53" s="2"/>
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
@@ -3808,46 +3839,46 @@
       <c r="AB53" s="2"/>
       <c r="AC53" s="2"/>
     </row>
-    <row r="54" spans="1:29" ht="13" customHeight="1">
-      <c r="A54" s="11" t="s">
+    <row r="54" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A54" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D54" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="G54" s="6" t="s">
+      <c r="C54" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="G54" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="H54" s="34">
+      <c r="H54" s="20">
         <v>44026</v>
       </c>
-      <c r="I54" s="6" t="s">
+      <c r="I54" s="18" t="s">
         <v>118</v>
       </c>
       <c r="K54" s="2"/>
-      <c r="L54" s="32"/>
-      <c r="M54" s="32"/>
-      <c r="N54" s="32"/>
-      <c r="O54" s="32"/>
-      <c r="P54" s="32"/>
-      <c r="Q54" s="32"/>
-      <c r="R54" s="32"/>
-      <c r="S54" s="32"/>
-      <c r="T54" s="32"/>
-      <c r="U54" s="32"/>
-      <c r="V54" s="32"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="37"/>
+      <c r="O54" s="37"/>
+      <c r="P54" s="37"/>
+      <c r="Q54" s="37"/>
+      <c r="R54" s="37"/>
+      <c r="S54" s="37"/>
+      <c r="T54" s="37"/>
+      <c r="U54" s="37"/>
+      <c r="V54" s="37"/>
       <c r="W54" s="2"/>
       <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
@@ -3856,28 +3887,28 @@
       <c r="AB54" s="2"/>
       <c r="AC54" s="2"/>
     </row>
-    <row r="55" spans="1:29" ht="13" customHeight="1">
-      <c r="A55" s="11"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
+    <row r="55" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A55" s="29"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
       <c r="K55" s="2"/>
-      <c r="L55" s="32"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="32"/>
-      <c r="O55" s="32"/>
-      <c r="P55" s="32"/>
-      <c r="Q55" s="32"/>
-      <c r="R55" s="32"/>
-      <c r="S55" s="32"/>
-      <c r="T55" s="32"/>
-      <c r="U55" s="32"/>
-      <c r="V55" s="32"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="37"/>
+      <c r="O55" s="37"/>
+      <c r="P55" s="37"/>
+      <c r="Q55" s="37"/>
+      <c r="R55" s="37"/>
+      <c r="S55" s="37"/>
+      <c r="T55" s="37"/>
+      <c r="U55" s="37"/>
+      <c r="V55" s="37"/>
       <c r="W55" s="2"/>
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
@@ -3886,28 +3917,28 @@
       <c r="AB55" s="2"/>
       <c r="AC55" s="2"/>
     </row>
-    <row r="56" spans="1:29" ht="13" customHeight="1">
-      <c r="A56" s="11"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
+    <row r="56" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A56" s="29"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
       <c r="K56" s="2"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="33"/>
-      <c r="N56" s="33"/>
-      <c r="O56" s="33"/>
-      <c r="P56" s="33"/>
-      <c r="Q56" s="33"/>
-      <c r="R56" s="33"/>
-      <c r="S56" s="33"/>
-      <c r="T56" s="33"/>
-      <c r="U56" s="33"/>
-      <c r="V56" s="33"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="37"/>
+      <c r="O56" s="37"/>
+      <c r="P56" s="37"/>
+      <c r="Q56" s="37"/>
+      <c r="R56" s="37"/>
+      <c r="S56" s="37"/>
+      <c r="T56" s="37"/>
+      <c r="U56" s="37"/>
+      <c r="V56" s="37"/>
       <c r="W56" s="2"/>
       <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
@@ -3916,28 +3947,28 @@
       <c r="AB56" s="2"/>
       <c r="AC56" s="2"/>
     </row>
-    <row r="57" spans="1:29" ht="13" customHeight="1">
-      <c r="A57" s="11"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
+    <row r="57" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A57" s="29"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
       <c r="K57" s="2"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="5"/>
-      <c r="U57" s="5"/>
-      <c r="V57" s="5"/>
+      <c r="L57" s="38"/>
+      <c r="M57" s="38"/>
+      <c r="N57" s="38"/>
+      <c r="O57" s="38"/>
+      <c r="P57" s="38"/>
+      <c r="Q57" s="38"/>
+      <c r="R57" s="38"/>
+      <c r="S57" s="38"/>
+      <c r="T57" s="38"/>
+      <c r="U57" s="38"/>
+      <c r="V57" s="38"/>
       <c r="W57" s="2"/>
       <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
@@ -3946,28 +3977,28 @@
       <c r="AB57" s="2"/>
       <c r="AC57" s="2"/>
     </row>
-    <row r="58" spans="1:29" ht="36" customHeight="1">
-      <c r="A58" s="11"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
+    <row r="58" spans="1:29" customFormat="1" ht="37" customHeight="1">
+      <c r="A58" s="29"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
       <c r="K58" s="2"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="5"/>
-      <c r="U58" s="5"/>
-      <c r="V58" s="5"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="37"/>
+      <c r="P58" s="37"/>
+      <c r="Q58" s="37"/>
+      <c r="R58" s="37"/>
+      <c r="S58" s="37"/>
+      <c r="T58" s="37"/>
+      <c r="U58" s="37"/>
+      <c r="V58" s="37"/>
       <c r="W58" s="2"/>
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
@@ -3976,46 +4007,46 @@
       <c r="AB58" s="2"/>
       <c r="AC58" s="2"/>
     </row>
-    <row r="59" spans="1:29" ht="13" customHeight="1">
-      <c r="A59" s="11" t="s">
+    <row r="59" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A59" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D59" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="E59" s="15" t="s">
+      <c r="C59" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F59" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="F59" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="G59" s="6" t="s">
+      <c r="G59" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="H59" s="34">
+      <c r="H59" s="20">
         <v>44026</v>
       </c>
-      <c r="I59" s="6" t="s">
+      <c r="I59" s="18" t="s">
         <v>118</v>
       </c>
       <c r="K59" s="2"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
-      <c r="U59" s="5"/>
-      <c r="V59" s="5"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="37"/>
+      <c r="O59" s="37"/>
+      <c r="P59" s="37"/>
+      <c r="Q59" s="37"/>
+      <c r="R59" s="37"/>
+      <c r="S59" s="37"/>
+      <c r="T59" s="37"/>
+      <c r="U59" s="37"/>
+      <c r="V59" s="37"/>
       <c r="W59" s="2"/>
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
@@ -4024,28 +4055,28 @@
       <c r="AB59" s="2"/>
       <c r="AC59" s="2"/>
     </row>
-    <row r="60" spans="1:29" ht="13" customHeight="1">
-      <c r="A60" s="11"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
+    <row r="60" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A60" s="29"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
       <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="2"/>
-      <c r="S60" s="2"/>
-      <c r="T60" s="2"/>
-      <c r="U60" s="2"/>
-      <c r="V60" s="2"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="37"/>
+      <c r="P60" s="37"/>
+      <c r="Q60" s="37"/>
+      <c r="R60" s="37"/>
+      <c r="S60" s="37"/>
+      <c r="T60" s="37"/>
+      <c r="U60" s="37"/>
+      <c r="V60" s="37"/>
       <c r="W60" s="2"/>
       <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
@@ -4054,28 +4085,28 @@
       <c r="AB60" s="2"/>
       <c r="AC60" s="2"/>
     </row>
-    <row r="61" spans="1:29" ht="13" customHeight="1">
-      <c r="A61" s="11"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
+    <row r="61" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A61" s="29"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
       <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="2"/>
-      <c r="R61" s="2"/>
-      <c r="S61" s="2"/>
-      <c r="T61" s="2"/>
-      <c r="U61" s="2"/>
-      <c r="V61" s="2"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="38"/>
+      <c r="O61" s="38"/>
+      <c r="P61" s="38"/>
+      <c r="Q61" s="38"/>
+      <c r="R61" s="38"/>
+      <c r="S61" s="38"/>
+      <c r="T61" s="38"/>
+      <c r="U61" s="38"/>
+      <c r="V61" s="38"/>
       <c r="W61" s="2"/>
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
@@ -4084,28 +4115,28 @@
       <c r="AB61" s="2"/>
       <c r="AC61" s="2"/>
     </row>
-    <row r="62" spans="1:29" ht="13" customHeight="1">
-      <c r="A62" s="11"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
+    <row r="62" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A62" s="29"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
       <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
-      <c r="R62" s="2"/>
-      <c r="S62" s="2"/>
-      <c r="T62" s="2"/>
-      <c r="U62" s="2"/>
-      <c r="V62" s="2"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
       <c r="W62" s="2"/>
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
@@ -4114,28 +4145,28 @@
       <c r="AB62" s="2"/>
       <c r="AC62" s="2"/>
     </row>
-    <row r="63" spans="1:29" ht="41" customHeight="1">
-      <c r="A63" s="11"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
+    <row r="63" spans="1:29" customFormat="1" ht="36" customHeight="1">
+      <c r="A63" s="29"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
       <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="2"/>
-      <c r="R63" s="2"/>
-      <c r="S63" s="2"/>
-      <c r="T63" s="2"/>
-      <c r="U63" s="2"/>
-      <c r="V63" s="2"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5"/>
       <c r="W63" s="2"/>
       <c r="X63" s="2"/>
       <c r="Y63" s="2"/>
@@ -4144,46 +4175,46 @@
       <c r="AB63" s="2"/>
       <c r="AC63" s="2"/>
     </row>
-    <row r="64" spans="1:29" ht="13" customHeight="1">
-      <c r="A64" s="11" t="s">
+    <row r="64" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A64" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D64" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="E64" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F64" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G64" s="6" t="s">
+      <c r="C64" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G64" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="H64" s="34">
+      <c r="H64" s="20">
         <v>44026</v>
       </c>
-      <c r="I64" s="6" t="s">
+      <c r="I64" s="18" t="s">
         <v>118</v>
       </c>
       <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
-      <c r="R64" s="2"/>
-      <c r="S64" s="2"/>
-      <c r="T64" s="2"/>
-      <c r="U64" s="2"/>
-      <c r="V64" s="2"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
       <c r="W64" s="2"/>
       <c r="X64" s="2"/>
       <c r="Y64" s="2"/>
@@ -4192,16 +4223,16 @@
       <c r="AB64" s="2"/>
       <c r="AC64" s="2"/>
     </row>
-    <row r="65" spans="1:29" ht="13" customHeight="1">
-      <c r="A65" s="11"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
+    <row r="65" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A65" s="29"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
@@ -4222,16 +4253,16 @@
       <c r="AB65" s="2"/>
       <c r="AC65" s="2"/>
     </row>
-    <row r="66" spans="1:29" ht="13" customHeight="1">
-      <c r="A66" s="11"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
+    <row r="66" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A66" s="29"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
@@ -4252,16 +4283,16 @@
       <c r="AB66" s="2"/>
       <c r="AC66" s="2"/>
     </row>
-    <row r="67" spans="1:29" ht="13" customHeight="1">
-      <c r="A67" s="11"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
+    <row r="67" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A67" s="29"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
@@ -4282,16 +4313,16 @@
       <c r="AB67" s="2"/>
       <c r="AC67" s="2"/>
     </row>
-    <row r="68" spans="1:29" ht="41" customHeight="1">
-      <c r="A68" s="11"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
+    <row r="68" spans="1:29" customFormat="1" ht="41" customHeight="1">
+      <c r="A68" s="29"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
@@ -4312,32 +4343,32 @@
       <c r="AB68" s="2"/>
       <c r="AC68" s="2"/>
     </row>
-    <row r="69" spans="1:29" ht="13" customHeight="1">
-      <c r="A69" s="27" t="s">
+    <row r="69" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A69" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C69" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D69" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="E69" s="12" t="s">
+      <c r="C69" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="E69" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F69" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="G69" s="6" t="s">
+      <c r="F69" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G69" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="H69" s="34">
+      <c r="H69" s="20">
         <v>44026</v>
       </c>
-      <c r="I69" s="6" t="s">
+      <c r="I69" s="18" t="s">
         <v>118</v>
       </c>
       <c r="K69" s="2"/>
@@ -4360,16 +4391,16 @@
       <c r="AB69" s="2"/>
       <c r="AC69" s="2"/>
     </row>
-    <row r="70" spans="1:29" ht="13" customHeight="1">
-      <c r="A70" s="28"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
+    <row r="70" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A70" s="29"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
@@ -4390,16 +4421,16 @@
       <c r="AB70" s="2"/>
       <c r="AC70" s="2"/>
     </row>
-    <row r="71" spans="1:29" ht="13" customHeight="1">
-      <c r="A71" s="28"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
+    <row r="71" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A71" s="29"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
@@ -4420,16 +4451,16 @@
       <c r="AB71" s="2"/>
       <c r="AC71" s="2"/>
     </row>
-    <row r="72" spans="1:29" ht="13" customHeight="1">
-      <c r="A72" s="28"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
+    <row r="72" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A72" s="29"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
@@ -4450,16 +4481,16 @@
       <c r="AB72" s="2"/>
       <c r="AC72" s="2"/>
     </row>
-    <row r="73" spans="1:29" ht="29.5" customHeight="1">
-      <c r="A73" s="28"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
+    <row r="73" spans="1:29" customFormat="1" ht="41" customHeight="1">
+      <c r="A73" s="29"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
@@ -4480,125 +4511,385 @@
       <c r="AB73" s="2"/>
       <c r="AC73" s="2"/>
     </row>
-    <row r="74" spans="1:29" ht="13" customHeight="1">
-      <c r="A74" s="23"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="26"/>
-      <c r="I74" s="26"/>
-    </row>
-    <row r="75" spans="1:29" ht="13" customHeight="1">
-      <c r="A75" s="20"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-    </row>
-    <row r="76" spans="1:29" ht="13" customHeight="1">
-      <c r="A76" s="20"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-    </row>
-    <row r="77" spans="1:29" ht="13" customHeight="1">
-      <c r="A77" s="20"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-    </row>
-    <row r="78" spans="1:29" ht="13" customHeight="1">
-      <c r="A78" s="20"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-    </row>
-    <row r="79" spans="1:29" ht="13" customHeight="1">
-      <c r="A79" s="20"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-    </row>
-    <row r="80" spans="1:29" ht="13" customHeight="1">
-      <c r="A80" s="20"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-    </row>
-    <row r="81" spans="1:9" ht="13" customHeight="1">
-      <c r="A81" s="20"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-    </row>
-    <row r="82" spans="1:9" ht="13" customHeight="1">
-      <c r="A82" s="20"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-    </row>
-    <row r="83" spans="1:9" ht="13" customHeight="1">
-      <c r="A83" s="20"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-    </row>
+    <row r="74" spans="1:29" customFormat="1" ht="13" hidden="1" customHeight="1">
+      <c r="A74" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H74" s="10">
+        <v>44027</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
+      <c r="X74" s="2"/>
+      <c r="Y74" s="2"/>
+      <c r="Z74" s="2"/>
+      <c r="AA74" s="2"/>
+      <c r="AB74" s="2"/>
+      <c r="AC74" s="2"/>
+    </row>
+    <row r="75" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A75" s="44"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="39"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
+      <c r="X75" s="2"/>
+      <c r="Y75" s="2"/>
+      <c r="Z75" s="2"/>
+      <c r="AA75" s="2"/>
+      <c r="AB75" s="2"/>
+      <c r="AC75" s="2"/>
+    </row>
+    <row r="76" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A76" s="41"/>
+      <c r="B76" s="42"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="40"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
+      <c r="X76" s="2"/>
+      <c r="Y76" s="2"/>
+      <c r="Z76" s="2"/>
+      <c r="AA76" s="2"/>
+      <c r="AB76" s="2"/>
+      <c r="AC76" s="2"/>
+    </row>
+    <row r="77" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A77" s="41"/>
+      <c r="B77" s="42"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="42"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="2"/>
+      <c r="X77" s="2"/>
+      <c r="Y77" s="2"/>
+      <c r="Z77" s="2"/>
+      <c r="AA77" s="2"/>
+      <c r="AB77" s="2"/>
+      <c r="AC77" s="2"/>
+    </row>
+    <row r="78" spans="1:29" customFormat="1" ht="29.5" customHeight="1">
+      <c r="A78" s="41"/>
+      <c r="B78" s="42"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="42"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="40"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+      <c r="X78" s="2"/>
+      <c r="Y78" s="2"/>
+      <c r="Z78" s="2"/>
+      <c r="AA78" s="2"/>
+      <c r="AB78" s="2"/>
+      <c r="AC78" s="2"/>
+    </row>
+    <row r="79" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A79" s="41"/>
+      <c r="B79" s="42"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="40"/>
+      <c r="H79" s="40"/>
+      <c r="I79" s="40"/>
+    </row>
+    <row r="80" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A80" s="41"/>
+      <c r="B80" s="42"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="40"/>
+    </row>
+    <row r="81" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A81" s="41"/>
+      <c r="B81" s="42"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="40"/>
+      <c r="H81" s="40"/>
+      <c r="I81" s="40"/>
+    </row>
+    <row r="82" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A82" s="41"/>
+      <c r="B82" s="42"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="42"/>
+      <c r="G82" s="40"/>
+      <c r="H82" s="40"/>
+      <c r="I82" s="40"/>
+    </row>
+    <row r="83" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A83" s="41"/>
+      <c r="B83" s="42"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="43"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="42"/>
+      <c r="G83" s="40"/>
+      <c r="H83" s="40"/>
+      <c r="I83" s="40"/>
+    </row>
+    <row r="84" spans="1:29" customFormat="1" ht="13" customHeight="1">
+      <c r="A84" s="41"/>
+      <c r="B84" s="42"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="42"/>
+      <c r="G84" s="40"/>
+      <c r="H84" s="40"/>
+      <c r="I84" s="40"/>
+    </row>
+    <row r="85" spans="1:29" customFormat="1"/>
+    <row r="86" spans="1:29" customFormat="1"/>
+    <row r="87" spans="1:29" customFormat="1"/>
+    <row r="88" spans="1:29" customFormat="1"/>
   </sheetData>
   <mergeCells count="156">
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="H24:H28"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="G80:G84"/>
+    <mergeCell ref="H80:H84"/>
+    <mergeCell ref="I80:I84"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
     <mergeCell ref="D14:D18"/>
     <mergeCell ref="E14:E18"/>
     <mergeCell ref="F14:F18"/>
     <mergeCell ref="G14:G18"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="H24:H28"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="B80:B84"/>
+    <mergeCell ref="C80:C84"/>
+    <mergeCell ref="D80:D84"/>
+    <mergeCell ref="E80:E84"/>
+    <mergeCell ref="F80:F84"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="D75:D79"/>
+    <mergeCell ref="E75:E79"/>
+    <mergeCell ref="F75:F79"/>
+    <mergeCell ref="G75:G79"/>
+    <mergeCell ref="H75:H79"/>
+    <mergeCell ref="I75:I79"/>
+    <mergeCell ref="H69:H73"/>
+    <mergeCell ref="I69:I73"/>
+    <mergeCell ref="G64:G68"/>
+    <mergeCell ref="H64:H68"/>
+    <mergeCell ref="I64:I68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="C69:C73"/>
+    <mergeCell ref="D69:D73"/>
+    <mergeCell ref="E69:E73"/>
+    <mergeCell ref="F69:F73"/>
+    <mergeCell ref="G69:G73"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="C64:C68"/>
+    <mergeCell ref="D64:D68"/>
+    <mergeCell ref="E64:E68"/>
+    <mergeCell ref="F64:F68"/>
+    <mergeCell ref="G59:G63"/>
+    <mergeCell ref="H59:H63"/>
+    <mergeCell ref="I59:I63"/>
+    <mergeCell ref="L59:V59"/>
+    <mergeCell ref="L60:V60"/>
+    <mergeCell ref="L61:V61"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="D59:D63"/>
+    <mergeCell ref="E59:E63"/>
+    <mergeCell ref="F59:F63"/>
+    <mergeCell ref="G54:G58"/>
+    <mergeCell ref="H54:H58"/>
+    <mergeCell ref="I54:I58"/>
+    <mergeCell ref="L54:V54"/>
+    <mergeCell ref="L55:V55"/>
+    <mergeCell ref="L56:V56"/>
+    <mergeCell ref="L57:V57"/>
+    <mergeCell ref="L58:V58"/>
+    <mergeCell ref="G49:G53"/>
+    <mergeCell ref="H49:H53"/>
+    <mergeCell ref="I49:I53"/>
+    <mergeCell ref="L53:V53"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="E54:E58"/>
+    <mergeCell ref="F54:F58"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="D49:D53"/>
+    <mergeCell ref="E49:E53"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="E44:E48"/>
+    <mergeCell ref="F44:F48"/>
+    <mergeCell ref="G44:G48"/>
+    <mergeCell ref="H44:H48"/>
+    <mergeCell ref="I44:I48"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="H39:H43"/>
+    <mergeCell ref="H29:H33"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="H2:I2"/>
@@ -4611,143 +4902,11 @@
     <mergeCell ref="G4:G8"/>
     <mergeCell ref="H4:H8"/>
     <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I39:I43"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="H34:H38"/>
     <mergeCell ref="I34:I38"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="H29:H33"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="F29:F33"/>
     <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="G39:G43"/>
-    <mergeCell ref="H39:H43"/>
-    <mergeCell ref="I39:I43"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="D49:D53"/>
-    <mergeCell ref="E49:E53"/>
-    <mergeCell ref="F49:F53"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="E44:E48"/>
-    <mergeCell ref="F44:F48"/>
-    <mergeCell ref="G49:G53"/>
-    <mergeCell ref="H49:H53"/>
-    <mergeCell ref="I49:I53"/>
-    <mergeCell ref="L49:V49"/>
-    <mergeCell ref="L50:V50"/>
-    <mergeCell ref="L51:V51"/>
-    <mergeCell ref="L52:V52"/>
-    <mergeCell ref="L53:V53"/>
-    <mergeCell ref="G44:G48"/>
-    <mergeCell ref="H44:H48"/>
-    <mergeCell ref="I44:I48"/>
-    <mergeCell ref="L48:V48"/>
-    <mergeCell ref="G54:G58"/>
-    <mergeCell ref="H54:H58"/>
-    <mergeCell ref="I54:I58"/>
-    <mergeCell ref="L54:V54"/>
-    <mergeCell ref="L55:V55"/>
-    <mergeCell ref="L56:V56"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="E54:E58"/>
-    <mergeCell ref="F54:F58"/>
-    <mergeCell ref="G59:G63"/>
-    <mergeCell ref="H59:H63"/>
-    <mergeCell ref="I59:I63"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="C64:C68"/>
-    <mergeCell ref="D64:D68"/>
-    <mergeCell ref="E64:E68"/>
-    <mergeCell ref="F64:F68"/>
-    <mergeCell ref="G64:G68"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="D59:D63"/>
-    <mergeCell ref="E59:E63"/>
-    <mergeCell ref="F59:F63"/>
-    <mergeCell ref="H74:H78"/>
-    <mergeCell ref="I74:I78"/>
-    <mergeCell ref="H64:H68"/>
-    <mergeCell ref="I64:I68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="C69:C73"/>
-    <mergeCell ref="D69:D73"/>
-    <mergeCell ref="E69:E73"/>
-    <mergeCell ref="F69:F73"/>
-    <mergeCell ref="G69:G73"/>
-    <mergeCell ref="H69:H73"/>
-    <mergeCell ref="G79:G83"/>
-    <mergeCell ref="H79:H83"/>
-    <mergeCell ref="I79:I83"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="F9:F13"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="C79:C83"/>
-    <mergeCell ref="D79:D83"/>
-    <mergeCell ref="E79:E83"/>
-    <mergeCell ref="F79:F83"/>
-    <mergeCell ref="I69:I73"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="C74:C78"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="E74:E78"/>
-    <mergeCell ref="F74:F78"/>
-    <mergeCell ref="G74:G78"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="F19:F23"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="H19:H23"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
